--- a/Edo-common-main/Assets/Database/A_Home/Trivia/list_trivia.xlsx
+++ b/Edo-common-main/Assets/Database/A_Home/Trivia/list_trivia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Edo-common\Assets\Database\A_Home\Trivia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koumori0\Edo-common-main\Edo-common-main\Assets\Database\A_Home\Trivia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CE2AE7-8B84-4FEC-9FE2-3A3059EE7FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE39ACF-B43E-4F06-9F2B-F9C6F61EBD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4EF3DC5C-A271-C44A-93CE-6FEAA07B5E59}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4EF3DC5C-A271-C44A-93CE-6FEAA07B5E59}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,6 @@
     <t>https://kimono-rentalier.jp/column/kimono/edokomontoha/</t>
   </si>
   <si>
-    <t>江戸&lt;r=ちゅうき&gt;中期&lt;/r&gt;になると町の人にも広がって　&lt;r=かく&gt;各&lt;/r&gt;地方が決めた「定め小紋」と　&lt;r=しぜん&gt;自然&lt;/r&gt;や動物などを使った「いわれ小紋」が生まれたんだって～</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>江戸小紋は　江戸時代に&lt;r=ぶし&gt;武士&lt;/r&gt;の正式な服に使われ始めた柄なんだって～</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -83,22 +79,26 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>江戸小紋の&lt;r=がら&gt;柄&lt;/r&gt;って　遠くからじゃ見えないよね～</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「&lt;r=こ&gt;小&lt;/r&gt;」&lt;r=もん&gt;紋&lt;/r&gt;って言うけど　&lt;r=がら&gt;柄&lt;/r&gt;の大きいものもあるんだよ～</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;r=むかし&gt;昔&lt;/r&gt;の人は　ぜいたく&lt;r=きんしれい&gt;禁止令&lt;/r&gt;によって&lt;r=はで&gt;派手&lt;/r&gt;な色や&lt;r=がら&gt;柄&lt;/r&gt;を&lt;r=きんし&gt;禁止&lt;/r&gt;されたから　落ち着いた色に細かい柄の生地を使ってオシャレをするようになったんだってさ～</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;r=かく&gt;各&lt;/r&gt;地方の&lt;r=ぶし&gt;武士&lt;/r&gt;は　&lt;r=むじ&gt;無地&lt;/r&gt;の着物にその土地の&lt;r=もよう&gt;模様&lt;/r&gt;を入れて　&lt;r=ごうか&gt;豪華&lt;/r&gt;さを&lt;r=きそ&gt;競&lt;/r&gt;ったんだって～</t>
+    <t>&lt;r=むかし&gt;昔&lt;/r&gt;の人は　ぜいたく&lt;r=きんしれい&gt;禁止令&lt;/r&gt;によって&lt;r=はで&gt;派手&lt;/r&gt;な色や柄を&lt;r=きんし&gt;禁止&lt;/r&gt;されたから　落ち着いた色に細かい柄の生地を使ってオシャレをするようになったんだってさ～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「&lt;r=こ&gt;小&lt;/r&gt;」&lt;r=もん&gt;紋&lt;/r&gt;って言うけど柄の大きいものもあるんだよ～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江戸&lt;r=ちゅうき&gt;中期&lt;/r&gt;になると町の人にも広がって　各地方が決めた「定め小紋」と　&lt;r=しぜん&gt;自然&lt;/r&gt;や動物などを使った「いわれ小紋」が生まれたんだって～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;r=かく&gt;各&lt;/r&gt;地方の&lt;r=ぶし&gt;武士&lt;/r&gt;は　&lt;r=むじ&gt;無地&lt;/r&gt;の着物にその土地の模様を入れて　&lt;r=ごうか&gt;豪華&lt;/r&gt;さを&lt;r=きそ&gt;競&lt;/r&gt;ったんだって～</t>
     <rPh sb="6" eb="7">
       <t>カク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江戸小紋の柄って　遠くからじゃ見えないよね～</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -618,9 +618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9465E3B1-09D9-B94D-A3CF-30A389C6EF1E}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -683,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
@@ -695,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>3</v>
@@ -719,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>3</v>
@@ -731,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>3</v>
@@ -743,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -755,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>3</v>

--- a/Edo-common-main/Assets/Database/A_Home/Trivia/list_trivia.xlsx
+++ b/Edo-common-main/Assets/Database/A_Home/Trivia/list_trivia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koumori0\Edo-common-main\Edo-common-main\Assets\Database\A_Home\Trivia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE39ACF-B43E-4F06-9F2B-F9C6F61EBD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318A2255-36D4-4127-A206-59DA983B0097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4EF3DC5C-A271-C44A-93CE-6FEAA07B5E59}"/>
+    <workbookView xWindow="8544" yWindow="1512" windowWidth="10848" windowHeight="9420" xr2:uid="{4EF3DC5C-A271-C44A-93CE-6FEAA07B5E59}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -60,34 +60,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>江戸小紋って　江戸時代からある「&lt;r=かたぞ&gt;型染&lt;/r&gt;め」って&lt;r=そ&gt;染&lt;/r&gt;めもののことなんだって～</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>江戸小紋は細かい模様の着物で　模様が細かいほど作るのが&lt;r=むずか&gt;難&lt;/r&gt;しくて　&lt;r=かち&gt;価値&lt;/r&gt;が高くなるみたい～</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>江戸小紋は　黒や色の&lt;r=むじ&gt;無地&lt;/r&gt;の次に　&lt;r=だんせい&gt;男性&lt;/r&gt;の&lt;r=かんたん&gt;簡単&lt;/r&gt;な服として使われるようになって　だんだん&lt;r=じょせい&gt;女性&lt;/r&gt;の着物としても使われるようになったみたい～</t>
-  </si>
-  <si>
-    <t>江戸小紋の鮫小紋　行儀小紋　通し小紋は　&lt;r=だいひょうてき&gt;代表的&lt;/r&gt;な模様で
-「江戸小紋三役」って言うみたいだよ～</t>
-    <rPh sb="16" eb="18">
-      <t>コモン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;r=むかし&gt;昔&lt;/r&gt;の人は　ぜいたく&lt;r=きんしれい&gt;禁止令&lt;/r&gt;によって&lt;r=はで&gt;派手&lt;/r&gt;な色や柄を&lt;r=きんし&gt;禁止&lt;/r&gt;されたから　落ち着いた色に細かい柄の生地を使ってオシャレをするようになったんだってさ～</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「&lt;r=こ&gt;小&lt;/r&gt;」&lt;r=もん&gt;紋&lt;/r&gt;って言うけど柄の大きいものもあるんだよ～</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>江戸&lt;r=ちゅうき&gt;中期&lt;/r&gt;になると町の人にも広がって　各地方が決めた「定め小紋」と　&lt;r=しぜん&gt;自然&lt;/r&gt;や動物などを使った「いわれ小紋」が生まれたんだって～</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -99,6 +72,34 @@
   </si>
   <si>
     <t>江戸小紋の柄って　遠くからじゃ見えないよね～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江戸小紋は　黒や色の&lt;r=むじ&gt;無地&lt;/r&gt;の次に　　&lt;r=だんせい&gt;男性&lt;/r&gt;の&lt;r=かんたん&gt;簡単&lt;/r&gt;な服として使われるようになって　だんだん&lt;r=じょせい&gt;女性&lt;/r&gt;の着物としても使われるようになったみたい～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江戸小紋の鮫小紋　行儀小紋　　　　　　通し小紋は　&lt;r=だいひょうてき&gt;代表的&lt;/r&gt;な模様で
+「江戸小紋三役」って言うみたいだよ～</t>
+    <rPh sb="21" eb="23">
+      <t>コモン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江戸&lt;r=ちゅうき&gt;中期&lt;/r&gt;になると町の人にも広がって　各地方が決めた「定め小紋」と　　　　　　&lt;r=しぜん&gt;自然&lt;/r&gt;や動物などを使った　　　　　　　　　　　「いわれ小紋」が生まれたんだって～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江戸小紋って　江戸時代からある　　　　　「&lt;r=かたぞ&gt;型染&lt;/r&gt;め」って&lt;r=そ&gt;染&lt;/r&gt;めもののことなんだって～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江戸小紋は細かい模様の着物で　模様が細かいほど作るのが&lt;r=むずか&gt;難&lt;/r&gt;しくて　　　　&lt;r=かち&gt;価値&lt;/r&gt;が高くなるみたい～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;r=むかし&gt;昔&lt;/r&gt;の人は　ぜいたく&lt;r=きんしれい&gt;禁止令&lt;/r&gt;によって&lt;r=はで&gt;派手&lt;/r&gt;な色や柄を&lt;r=きんし&gt;禁止&lt;/r&gt;されたから　　　　落ち着いた色に細かい柄の生地を使ってオシャレをするようになったんだってさ～</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -618,9 +619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9465E3B1-09D9-B94D-A3CF-30A389C6EF1E}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -647,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -659,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
@@ -671,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -683,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
@@ -707,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>3</v>
@@ -719,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>3</v>
@@ -731,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>3</v>
@@ -743,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -755,7 +756,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>3</v>
